--- a/data/trans_orig/P34B01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34B01-Habitat-trans_orig.xlsx
@@ -642,7 +642,7 @@
         <v>3.496580596687966</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3.747196859331692</v>
+        <v>3.747196859331693</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>3.211622064981433</v>
@@ -651,7 +651,7 @@
         <v>3.369119179103004</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>3.597294867513679</v>
+        <v>3.59729486751368</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>2.950481888554212</v>
@@ -660,7 +660,7 @@
         <v>3.432942624929877</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>3.669985740315633</v>
+        <v>3.669985740315632</v>
       </c>
     </row>
     <row r="5">
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.472380462626775</v>
+        <v>2.481384995274676</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.251897579288746</v>
+        <v>3.282225416525049</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.486539595646689</v>
+        <v>3.507603768935525</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.996418339267174</v>
+        <v>2.992617861253303</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.147436842500744</v>
+        <v>3.128515938429532</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.436155268742161</v>
+        <v>3.421546772705919</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.798929944808652</v>
+        <v>2.802166266558449</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.264779347834566</v>
+        <v>3.261511243790792</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.518557925665682</v>
+        <v>3.528062248761703</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.911749555546963</v>
+        <v>2.932774644652148</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.723263621720098</v>
+        <v>3.743565473084091</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.961933411427399</v>
+        <v>3.97138127683429</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.413103365203144</v>
+        <v>3.430627279059133</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.602266906728474</v>
+        <v>3.591237480527935</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.78834546527085</v>
+        <v>3.780152534055945</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.102625590320953</v>
+        <v>3.107561206413377</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.604294821169456</v>
+        <v>3.59703136961108</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.809021536843562</v>
+        <v>3.818835705767407</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.341914740021124</v>
+        <v>2.338709984053529</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.73093996871998</v>
+        <v>2.723709107035764</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.589178111958137</v>
+        <v>3.602530801237513</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.351594162265979</v>
+        <v>2.361867362185295</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>2.528215553330714</v>
+        <v>2.518969112030489</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.57343011598986</v>
+        <v>3.587253594618431</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>2.415730649044014</v>
+        <v>2.400223574641948</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>2.681728935057091</v>
+        <v>2.675358753183888</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>3.631346540927916</v>
+        <v>3.633328442877727</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.720683956025262</v>
+        <v>2.720861133079903</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.099693943238845</v>
+        <v>3.092715027056028</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.001788823010217</v>
+        <v>3.98540084896926</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.711930215558279</v>
+        <v>2.71554578365093</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>2.89357847207281</v>
+        <v>2.878431883789512</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>3.894420630023713</v>
+        <v>3.889655311811209</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>2.659384068745275</v>
+        <v>2.654986800412396</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>2.935191166630057</v>
+        <v>2.931517110609374</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>3.894990831987758</v>
+        <v>3.883666414180737</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>3.270843703042885</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3.851001949069059</v>
+        <v>3.851001949069058</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>3.075485237250104</v>
@@ -878,7 +878,7 @@
         <v>3.147088183728208</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>3.627266180856181</v>
+        <v>3.627266180856182</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.665922890830962</v>
+        <v>2.691971137736913</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.06956385270272</v>
+        <v>3.049903123832028</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.648600588161479</v>
+        <v>3.613992603579543</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.880606642358652</v>
+        <v>2.903409204104082</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.846148636094164</v>
+        <v>2.82498736768272</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.230522591781573</v>
+        <v>3.220782070207328</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.840169148249083</v>
+        <v>2.832122832277124</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>3.017269257142013</v>
+        <v>2.998036467286678</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.477985236010011</v>
+        <v>3.481747409406524</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.138072905929143</v>
+        <v>3.122703472555661</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.504640608278585</v>
+        <v>3.46438791391409</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.066845105091248</v>
+        <v>4.059854394731629</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.288734662909928</v>
+        <v>3.29433443610913</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.232816279491332</v>
+        <v>3.2217587620368</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.601445591697912</v>
+        <v>3.577594102508403</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.142802669969893</v>
+        <v>3.138136507841003</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.299825841797736</v>
+        <v>3.292970218174502</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.765612595735218</v>
+        <v>3.772126641430358</v>
       </c>
     </row>
     <row r="13">
@@ -978,7 +978,7 @@
         <v>3.552580706214444</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>3.496308710012816</v>
+        <v>3.496308710012817</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>2.663537653811465</v>
@@ -987,7 +987,7 @@
         <v>3.584566937398448</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>3.794118047472409</v>
+        <v>3.79411804747241</v>
       </c>
     </row>
     <row r="14">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.319591089137596</v>
+        <v>2.313526658259349</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.423710995595634</v>
+        <v>3.40431027965709</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.933213881697609</v>
+        <v>3.933744676659322</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.64508410898482</v>
+        <v>2.624667709418758</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.375145503481339</v>
+        <v>3.363009021945396</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.347282414622119</v>
+        <v>3.342029615094902</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>2.545570527632868</v>
+        <v>2.539571530964704</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>3.462079486541662</v>
+        <v>3.441977790165387</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>3.683332406624805</v>
+        <v>3.65847348818869</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.69743192830171</v>
+        <v>2.68968431981691</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.806796149257385</v>
+        <v>3.807994982851498</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.316915589855865</v>
+        <v>4.314809547562728</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.010676715511162</v>
+        <v>2.982376274519814</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>3.732045108208206</v>
+        <v>3.734334186679072</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>3.655186080879351</v>
+        <v>3.64793600843381</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>2.806022319678434</v>
+        <v>2.796964259019719</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>3.722361423384128</v>
+        <v>3.713447550292904</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>3.926167850003739</v>
+        <v>3.910460564717347</v>
       </c>
     </row>
     <row r="16">
@@ -1078,7 +1078,7 @@
         <v>3.304591579402637</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3.892127154019211</v>
+        <v>3.89212715401921</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>2.86815746598248</v>
@@ -1096,7 +1096,7 @@
         <v>3.225458970644491</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>3.723655631239114</v>
+        <v>3.723655631239115</v>
       </c>
     </row>
     <row r="17">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.536746588683711</v>
+        <v>2.542443317227256</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.196651999249368</v>
+        <v>3.198129937075746</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.772132013633025</v>
+        <v>3.788618274048198</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.76988299285618</v>
+        <v>2.763948563365407</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.057546396033668</v>
+        <v>3.051946239950124</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.481185217592946</v>
+        <v>3.485719079947876</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.676867090790226</v>
+        <v>2.68375808671575</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>3.153348555508419</v>
+        <v>3.155550632134171</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.660530090929477</v>
+        <v>3.6565851843438</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.7428434647285</v>
+        <v>2.742622059669384</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.407376756124634</v>
+        <v>3.404252389213299</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.990111785971981</v>
+        <v>3.99498219992309</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.963697351204393</v>
+        <v>2.964264481747424</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.250465022228013</v>
+        <v>3.248649706267233</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.654287336600009</v>
+        <v>3.639924422583641</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.82602028082141</v>
+        <v>2.824511466677583</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.297145499379032</v>
+        <v>3.29643193625115</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.792276657307626</v>
+        <v>3.793376775102618</v>
       </c>
     </row>
     <row r="19">
